--- a/data/income_statement/2digits/size/32_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/32_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>32-Other manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>32-Other manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1607443.25289</v>
+        <v>1626197.98562</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1993668.34323</v>
+        <v>2101332.40532</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3775479.486219999</v>
+        <v>3735683.11829</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3502943.57137</v>
+        <v>3546319.93564</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3092917.73023</v>
+        <v>3191464.18259</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3648519.36621</v>
+        <v>3779039.86524</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4372590.17661</v>
+        <v>4574635.865689999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4707680.682259999</v>
+        <v>4954107.79917</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5587738.74286</v>
+        <v>5829857.25563</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7656684.805939998</v>
+        <v>7534226.411280001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7789010.288800001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7712470.77825</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12433137.036</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>960087.8910400001</v>
+        <v>938980.75182</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1204991.285</v>
+        <v>1258137.53642</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2940273.93322</v>
+        <v>2931514.25658</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2138365.63642</v>
+        <v>2140710.65112</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1922623.67876</v>
+        <v>1978862.85407</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2269391.22728</v>
+        <v>2327588.33875</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2619327.1384</v>
+        <v>2756531.71129</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3211621.90432</v>
+        <v>3370909.20375</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3632331.69269</v>
+        <v>3746576.34689</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4492261.750399999</v>
+        <v>4451968.32003</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4570657.532020001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4525070.78494</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8169568.397</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>631646.1360299999</v>
+        <v>673944.0978700001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>771365.8456600001</v>
+        <v>826098.60476</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>817387.4893400001</v>
+        <v>785945.58187</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1343747.90338</v>
+        <v>1383536.65036</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1145116.81743</v>
+        <v>1186517.26301</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1353897.25198</v>
+        <v>1425095.69841</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1719010.29098</v>
+        <v>1778593.67665</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1449721.10506</v>
+        <v>1529034.91847</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1887104.56961</v>
+        <v>2007352.054939999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3082621.82767</v>
+        <v>2998513.56132</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3125755.9268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3096725.19867</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4130379.584</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>15709.22582</v>
+        <v>13273.13593</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>17311.21257</v>
+        <v>17096.26414</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>17818.06366</v>
+        <v>18223.27984</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>20830.03157</v>
+        <v>22072.63416</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>25177.23404</v>
+        <v>26084.06551</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>25230.88695</v>
+        <v>26355.82808</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>34252.74722999999</v>
+        <v>39510.47775</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>46337.67288</v>
+        <v>54163.67695</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>68302.48056</v>
+        <v>75928.85380000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>81801.22787</v>
+        <v>83744.52992999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>92596.82997999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>90674.79464000002</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>133189.055</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>53329.48147</v>
+        <v>48079.39121</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>58180.26044</v>
+        <v>59343.33116</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>73515.05881999999</v>
+        <v>69871.23281</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>76900.0615</v>
+        <v>70848.91623</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>76568.87612</v>
+        <v>83954.20490000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>76272.52460999999</v>
+        <v>90437.03697</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>141412.78726</v>
+        <v>158486.32736</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>149421.55701</v>
+        <v>167941.5037</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>160398.91436</v>
+        <v>186813.84338</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>363010.73651</v>
+        <v>360808.9299099999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>340070.30236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>341748.92646</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>468907.938</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>30603.94605</v>
+        <v>25437.76201</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>33260.31115</v>
+        <v>34038.07895</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>45104.69785</v>
+        <v>41865.79184</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>44982.62109</v>
+        <v>36255.68412000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>45134.71033</v>
+        <v>44727.50317</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>48866.84584999999</v>
+        <v>51544.45328</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>55247.59916</v>
+        <v>55467.48267</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>70705.27961</v>
+        <v>73973.45428999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>92129.84907000001</v>
+        <v>88145.97249</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>164134.77379</v>
+        <v>154554.53132</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>131254.72612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>110027.03281</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>217096.761</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>20548.39865</v>
+        <v>20646.83357</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>21938.01608</v>
+        <v>21984.20656999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>24858.2853</v>
+        <v>24385.03872</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>29696.49207</v>
+        <v>31596.15368</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>27286.61887</v>
+        <v>35052.28741</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>21982.2466</v>
+        <v>33613.5989</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>79209.32373999999</v>
+        <v>93495.96969999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>72766.1652</v>
+        <v>85944.35346</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>61333.87272</v>
+        <v>89628.09894</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>175019.22683</v>
+        <v>183495.60355</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>195175.52104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>218635.73225</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>154028.29</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2177.13677</v>
+        <v>1994.79563</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2981.93321</v>
+        <v>3321.04564</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3552.07567</v>
+        <v>3620.40225</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2220.94834</v>
+        <v>2997.07843</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4147.54692</v>
+        <v>4174.41432</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5423.43216</v>
+        <v>5278.98479</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6955.86436</v>
+        <v>9522.87499</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5950.1122</v>
+        <v>8023.69595</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6935.19257</v>
+        <v>9039.771949999998</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>23856.73589</v>
+        <v>22758.79504</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>13640.0552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13086.1614</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>97782.887</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1554113.77142</v>
+        <v>1578118.59441</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1935488.08279</v>
+        <v>2041989.07416</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3701964.4274</v>
+        <v>3665811.88548</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3426043.509870001</v>
+        <v>3475471.01941</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3016348.85411</v>
+        <v>3107509.97769</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3572246.8416</v>
+        <v>3688602.82827</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4231177.389350001</v>
+        <v>4416149.53833</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4558259.12525</v>
+        <v>4786166.295469999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5427339.828499999</v>
+        <v>5643043.41225</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7293674.06943</v>
+        <v>7173417.48137</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7448939.98644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7370721.85179</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11964229.098</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1270835.55752</v>
+        <v>1285120.01449</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1612927.15309</v>
+        <v>1678784.68497</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3278506.91869</v>
+        <v>3240609.05533</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2997574.2023</v>
+        <v>3033772.51349</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2520461.9551</v>
+        <v>2558999.1799</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2987707.45148</v>
+        <v>3036396.86932</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3497142.0341</v>
+        <v>3583880.56658</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3766465.50328</v>
+        <v>3910969.33774</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4439313.512789999</v>
+        <v>4597111.67272</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5826785.49739</v>
+        <v>5704255.10665</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5779618.631010001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5711663.45474</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>9264426.022</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>806243.7797000001</v>
+        <v>809876.92951</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1036425.38768</v>
+        <v>1077808.25474</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1267380.02562</v>
+        <v>1261402.32666</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1949173.28774</v>
+        <v>1997203.5845</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1994761.53244</v>
+        <v>2007417.84706</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2357599.23112</v>
+        <v>2401820.49008</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2601617.77569</v>
+        <v>2680510.58502</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2324645.62806</v>
+        <v>2436844.90206</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2991241.4189</v>
+        <v>3139665.53369</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4393712.688740001</v>
+        <v>4303632.276810001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4654978.14799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4661781.23254</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7331248.094</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>449371.37414</v>
+        <v>457698.17214</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>550669.46022</v>
+        <v>574693.63278</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1975926.88309</v>
+        <v>1945871.13516</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1010407.90456</v>
+        <v>998240.1438499999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>493665.43697</v>
+        <v>520908.6818199999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>553804.7839500001</v>
+        <v>563173.2284400001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>851390.7176300001</v>
+        <v>852580.68757</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1377518.70345</v>
+        <v>1398707.72484</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1380427.44671</v>
+        <v>1394213.42733</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1314410.16112</v>
+        <v>1284857.24708</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>978024.7713100001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>904710.0918700001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1795945.267</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>11367.30614</v>
+        <v>13176.05756</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>22778.07969</v>
+        <v>21155.749</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>22376.29119</v>
+        <v>20263.80732</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>30183.62944</v>
+        <v>28395.86608</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>28890.16482</v>
+        <v>24665.29237</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>65277.49914</v>
+        <v>56676.75496000001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>33303.50975</v>
+        <v>34363.45493</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>52990.35687999999</v>
+        <v>59148.01122</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>54619.45207</v>
+        <v>43124.6672</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>98391.65677000002</v>
+        <v>95296.48531</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>128010.59537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>125525.74077</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>93532.391</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3853.09754</v>
+        <v>4368.85528</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3054.2255</v>
+        <v>5127.04845</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>12823.71879</v>
+        <v>13071.78619</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>7809.38056</v>
+        <v>9932.91906</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3144.82087</v>
+        <v>6007.35865</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>11025.93727</v>
+        <v>14726.39584</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>10830.03103</v>
+        <v>16425.83906</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11310.81489</v>
+        <v>16268.69962</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>13025.19511</v>
+        <v>20108.0445</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>20270.99076</v>
+        <v>20469.09745</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18605.11634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19646.38956</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>43700.27</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>283278.2139</v>
+        <v>292998.5799199999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>322560.9297</v>
+        <v>363204.38919</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>423457.50871</v>
+        <v>425202.83015</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>428469.3075699999</v>
+        <v>441698.50592</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>495886.8990100001</v>
+        <v>548510.79779</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>584539.39012</v>
+        <v>652205.95895</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>734035.35525</v>
+        <v>832268.97175</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>791793.6219699999</v>
+        <v>875196.95773</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>988026.3157099999</v>
+        <v>1045931.73953</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1466888.57204</v>
+        <v>1469162.37472</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1669321.35543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1659058.39705</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2699803.076</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>178360.21059</v>
+        <v>187614.21381</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>213108.78961</v>
+        <v>247627.94732</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>264809.3493599999</v>
+        <v>277391.02078</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>274724.49891</v>
+        <v>297983.2116</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>312816.17613</v>
+        <v>364778.27029</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>373293.88007</v>
+        <v>414649.0676</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>451757.28935</v>
+        <v>527419.99509</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>498462.94607</v>
+        <v>546550.11966</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>594365.4336</v>
+        <v>612005.98107</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>765328.12797</v>
+        <v>755858.58291</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>913345.8581599999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>876870.55083</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1058094.319</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2102.49287</v>
+        <v>4264.829269999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2871.06814</v>
+        <v>4920.90759</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4786.16147</v>
+        <v>6173.28177</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3602.296150000001</v>
+        <v>5966.94275</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>6958.63829</v>
+        <v>9335.718649999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8041.60293</v>
+        <v>10659.32265</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>10271.15954</v>
+        <v>17305.06546</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5836.79625</v>
+        <v>9725.762140000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>15625.53596</v>
+        <v>16312.23369</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>16651.53464</v>
+        <v>18849.10294</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>39517.71218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>43048.10878</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>61153.649</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>71296.47723</v>
+        <v>82895.4529</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>83182.86696000001</v>
+        <v>112116.33064</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>110388.61097</v>
+        <v>124949.37222</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>114993.61925</v>
+        <v>135098.58598</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>130686.98754</v>
+        <v>166682.44491</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>158115.9546</v>
+        <v>185175.10133</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>199313.66114</v>
+        <v>258473.18303</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>209025.20425</v>
+        <v>244886.91763</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>248495.91758</v>
+        <v>280068.06618</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>391208.1933299999</v>
+        <v>398378.17617</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>429624.4573000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>429286.46733</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>430864.985</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>104961.24049</v>
+        <v>100453.93164</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>127054.85451</v>
+        <v>130590.70909</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>149634.57692</v>
+        <v>146268.36679</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>156128.58351</v>
+        <v>156917.68287</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>175170.5503</v>
+        <v>188760.10673</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>207136.32254</v>
+        <v>218814.64362</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>242172.46867</v>
+        <v>251641.7466</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>283600.94557</v>
+        <v>291937.43989</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>330243.98006</v>
+        <v>315625.6812</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>357468.4</v>
+        <v>338631.3038</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>444203.68868</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>404535.9747199999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>566075.6850000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>104918.00331</v>
+        <v>105384.36611</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>109452.14009</v>
+        <v>115576.44187</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>158648.15935</v>
+        <v>147811.80937</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>153744.80866</v>
+        <v>143715.29432</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>183070.72288</v>
+        <v>183732.5275</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>211245.51005</v>
+        <v>237556.89135</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>282278.0659</v>
+        <v>304848.97666</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>293330.6759</v>
+        <v>328646.8380700001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>393660.88211</v>
+        <v>433925.75846</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>701560.44407</v>
+        <v>713303.79181</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>755975.4972699999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>782187.8462200001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1641708.757</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>58119.51076</v>
+        <v>71370.65120000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>59943.82049</v>
+        <v>71313.22474000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>102805.51629</v>
+        <v>100564.20391</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>59215.90156000001</v>
+        <v>56526.50031</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>127166.84729</v>
+        <v>138624.08471</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>107276.45336</v>
+        <v>126782.35518</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>206425.00703</v>
+        <v>258014.92093</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>171749.5734</v>
+        <v>234467.39136</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>189407.46982</v>
+        <v>255134.9891</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>863140.64202</v>
+        <v>1199223.09537</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>386259.04095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>438499.0194</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>870690.304</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>833.93251</v>
+        <v>106.92542</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>876.2283100000001</v>
+        <v>395.64213</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>360.35008</v>
+        <v>1238.24035</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>131.25246</v>
+        <v>130.23746</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>316.80318</v>
+        <v>373.30444</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>1104.85594</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>253.70053</v>
+        <v>258.79499</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>828.75901</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1012.67264</v>
+        <v>1016.35049</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1152.85679</v>
+        <v>215.13279</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1178.18284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>394.03284</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>430.576</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1826,10 +1842,10 @@
         <v>99.2838</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>26.06547</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>11745.25545</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1840,74 +1856,84 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>6.933</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2711.75524</v>
+        <v>3304.41597</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2179.77679</v>
+        <v>2910.07378</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2736.14038</v>
+        <v>3817.525520000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>4903.43509</v>
+        <v>3838.98623</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6427.217189999999</v>
+        <v>6057.51184</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5038.570970000001</v>
+        <v>4889.16907</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8075.316379999999</v>
+        <v>7996.121859999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7693.201609999999</v>
+        <v>9942.18939</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>12565.53168</v>
+        <v>14639.88365</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>26010.79764</v>
+        <v>24771.86412999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>37365.46232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>36189.07083</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>36541.87</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>54.24249</v>
+        <v>51.49348</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>832.41184</v>
+        <v>1102.30346</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>217.54907</v>
+        <v>117.3115</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>304.84689</v>
+        <v>304.83636</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>79.44735</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>241.43557</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2784.33837</v>
+        <v>2455.81737</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1622.80344</v>
+        <v>1359.95755</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>146.1885</v>
@@ -1918,143 +1944,163 @@
       <c r="M29" s="48" t="n">
         <v>1747.4772</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>6520.875</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>181.40657</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>353.29937</v>
+        <v>320.50197</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>937.14048</v>
+        <v>883.5978</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>639.77198</v>
+        <v>583.3375699999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1104.26492</v>
+        <v>2148.3437</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1528.61787</v>
+        <v>1703.66592</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1857.33494</v>
+        <v>5300.559619999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1105.35847</v>
+        <v>1428.2278</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>891.1328100000001</v>
+        <v>2311.68661</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3054.74332</v>
+        <v>2296.24427</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4280.81571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3711.09954</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3467.872</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>325.49984</v>
+        <v>289.71269</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>6.685</v>
+        <v>159.03769</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>91.45317999999999</v>
+        <v>91.46347999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>217.8435</v>
+        <v>177.97322</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>553.71975</v>
+        <v>139.2079</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>354.63572</v>
+        <v>361.1147800000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>261.13662</v>
+        <v>396.36386</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>284.49723</v>
+        <v>568.73796</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>255.95616</v>
+        <v>470.12339</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>12532.50932</v>
+        <v>8729.08561</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1565.63619</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1640.20367</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3674.088</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>46759.03051999999</v>
+        <v>60236.82827000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>43337.23305</v>
+        <v>51772.78479999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>74945.07441</v>
+        <v>74477.54269</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>37347.88232</v>
+        <v>38693.11780000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>96824.89004000001</v>
+        <v>94423.84513</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>74707.79870999999</v>
+        <v>88486.97170000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>159903.36183</v>
+        <v>190485.98231</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>110815.14311</v>
+        <v>153873.60484</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>117392.79147</v>
+        <v>166809.50385</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>686783.47006</v>
+        <v>954134.923</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>257497.80513</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>250671.73946</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>593247.0209999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>35.92201</v>
+        <v>39.00139</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>38.07206</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>178.04453</v>
+        <v>53.30365</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>346.74207</v>
+        <v>321.67465</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>130.48243</v>
+        <v>1090.01702</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>617.94395</v>
@@ -2066,7 +2112,7 @@
         <v>822.75182</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>640.7819599999999</v>
+        <v>1215.58601</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>901.1415</v>
@@ -2074,206 +2120,236 @@
       <c r="M33" s="48" t="n">
         <v>2248.07004</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1806.631</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>3355.33553</v>
+        <v>3009.02894</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>7296.041230000001</v>
+        <v>7899.60383</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>13371.40434</v>
+        <v>11991.43768</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>4332.987700000001</v>
+        <v>4314.92825</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>11116.69954</v>
+        <v>10540.9513</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>8622.086070000001</v>
+        <v>7344.15116</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>15741.55564</v>
+        <v>14629.95894</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>23779.74978</v>
+        <v>25085.73246</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>34111.52317</v>
+        <v>36211.05340999999</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>97585.32112000001</v>
+        <v>113540.98784</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>29108.78696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>50024.59481</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>90694.914</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3862.38605</v>
+        <v>4151.838470000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5024.07284</v>
+        <v>6715.205019999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>9968.35982</v>
+        <v>7893.78124</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>10903.38661</v>
+        <v>8073.65583</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>10453.76274</v>
+        <v>23691.34323</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>14961.22476</v>
+        <v>21933.76329</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>16769.67132</v>
+        <v>35738.79605</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>13052.05348</v>
+        <v>40557.43053</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>22390.89143</v>
+        <v>32314.61319</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>33077.21039</v>
+        <v>92591.12435</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>51266.80456</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>91872.73100999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>134299.524</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>65086.3509</v>
+        <v>79721.77644999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>63397.98372</v>
+        <v>70789.69545</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>114600.58399</v>
+        <v>106097.62373</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>54099.56981</v>
+        <v>50301.99878</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>95039.28404</v>
+        <v>131509.25839</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>101669.35748</v>
+        <v>124435.82478</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>195963.11884</v>
+        <v>241402.79527</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>161581.93458</v>
+        <v>211958.75416</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>180034.03763</v>
+        <v>234488.77903</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>845093.2639100001</v>
+        <v>1097947.57638</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>338235.7227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>339264.41191</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>773577.419</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1922.92183</v>
+        <v>2570.36006</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1290.48004</v>
+        <v>1628.55396</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2232.70977</v>
+        <v>2205.49925</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2707.20399</v>
+        <v>2503.41879</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3308.77945</v>
+        <v>4256.70655</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2888.88209</v>
+        <v>4753.77512</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1505.56562</v>
+        <v>2899.98358</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4853.79143</v>
+        <v>5221.14149</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>6600.497869999999</v>
+        <v>6480.23526</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>13851.06642</v>
+        <v>13267.3622</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>14456.36892</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>13808.87815</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>10293.894</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2784.64813</v>
+        <v>2799.14597</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1597.89384</v>
+        <v>1561.98225</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3023.41024</v>
+        <v>2724.88231</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5453.580849999999</v>
+        <v>4702.114259999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3631.66004</v>
+        <v>4717.652590000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5379.986849999999</v>
+        <v>6026.48846</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8206.287100000001</v>
+        <v>22063.35087000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>10774.40067</v>
+        <v>16182.03787</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7496.51447</v>
+        <v>9044.765370000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>21732.18475</v>
+        <v>21297.53543</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10167.98333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>10298.56074</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>12974.815</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.38268</v>
@@ -2285,19 +2361,19 @@
         <v>9.518469999999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>68.92604</v>
+        <v>55.97692</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0</v>
+        <v>7328.17918</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3015.92957</v>
+        <v>3015.90464</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>145.95155</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>97.12591</v>
+        <v>97.1267</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>7.22322</v>
@@ -2308,65 +2384,75 @@
       <c r="M39" s="48" t="n">
         <v>0.04785</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>387.955</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>53380.51979000001</v>
+        <v>67021.00830999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>48108.24925</v>
+        <v>56315.76566</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>81766.84281</v>
+        <v>80669.26995999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>37406.01261</v>
+        <v>36261.27875</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>71524.69590000001</v>
+        <v>79853.76492999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>70107.18885999999</v>
+        <v>86164.79817000002</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>159990.2126</v>
+        <v>179475.79116</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>126069.84767</v>
+        <v>159567.43411</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>134440.01081</v>
+        <v>163982.58099</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>704200.99764</v>
+        <v>939648.4888099999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>267780.51984</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>251937.26356</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>597211.599</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>42.94479</v>
+        <v>62.81810000000001</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>40.23793</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>277.86909</v>
+        <v>59.16632</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>165.13231</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>528.4344100000001</v>
+        <v>1195.09106</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>634.47191</v>
@@ -2375,10 +2461,10 @@
         <v>836.9295999999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1323.84676</v>
+        <v>1228.36176</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0</v>
+        <v>686.2640600000001</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>1243.92938</v>
@@ -2386,632 +2472,715 @@
       <c r="M41" s="48" t="n">
         <v>2045.5168</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3216.531</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>5603.767269999999</v>
+        <v>5233.793</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>11210.47537</v>
+        <v>10078.11863</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>24942.13057</v>
+        <v>18563.16641</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>5330.91497</v>
+        <v>3893.97823</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>12259.92103</v>
+        <v>10523.85104</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>15986.83252</v>
+        <v>15158.61079</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>16600.60101</v>
+        <v>15673.58338</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>13153.7162</v>
+        <v>18407.49464</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>23707.82498</v>
+        <v>41092.50709</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>90421.12818000001</v>
+        <v>89302.38206999999</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>32874.09966</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>49704.91364</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>129461.681</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1350.16641</v>
+        <v>2033.26833</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1146.30984</v>
+        <v>1160.69957</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2348.10304</v>
+        <v>1866.12101</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2967.79904</v>
+        <v>2720.09952</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3785.79321</v>
+        <v>23634.01304</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3656.06568</v>
+        <v>8681.775689999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>8677.57136</v>
+        <v>20307.20513</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5309.20594</v>
+        <v>11255.15759</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>7781.966280000001</v>
+        <v>13195.20304</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>13486.32934</v>
+        <v>33030.25029</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10911.1863</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>11469.23117</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>20030.944</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>50952.58229</v>
+        <v>62727.85583</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>48584.66655</v>
+        <v>57390.74284000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>66332.43411</v>
+        <v>71570.51267</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>64957.93528</v>
+        <v>74963.22012</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>70963.03542999999</v>
+        <v>73647.91622999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>78702.76601000001</v>
+        <v>87515.2243</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>109775.20115</v>
+        <v>133695.70679</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>133156.95937</v>
+        <v>164713.20359</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>138936.75266</v>
+        <v>204165.3428</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>369121.82179</v>
+        <v>396587.09482</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>298248.89472</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>301024.7269</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>354984.303</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>49489.34322</v>
+        <v>62005.25251000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>46271.36573</v>
+        <v>56163.82439</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>59499.61873</v>
+        <v>69424.53263</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>61616.56193</v>
+        <v>72641.72156999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>67178.60281</v>
+        <v>70517.06923000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>76894.41926000001</v>
+        <v>85767.8217</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>105829.85359</v>
+        <v>130118.72676</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>124878.16645</v>
+        <v>150690.59454</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>130128.52173</v>
+        <v>188063.69975</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>330363.95278</v>
+        <v>357289.3632200001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>271265.08698</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>274324.65012</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>304284.229</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1463.23907</v>
+        <v>722.6033200000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2313.30082</v>
+        <v>1226.91845</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>6832.81538</v>
+        <v>2145.98004</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3341.37335</v>
+        <v>2321.49855</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3784.43262</v>
+        <v>3130.847</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1808.34675</v>
+        <v>1747.4026</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3945.34756</v>
+        <v>3576.98003</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>8278.79292</v>
+        <v>14022.60905</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>8808.23093</v>
+        <v>16101.64305</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>38757.86901</v>
+        <v>39297.73159999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>26983.80774</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>26700.07678</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>50700.074</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>46998.58088</v>
+        <v>34305.38503</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>57413.31030999999</v>
+        <v>58709.22832</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>80520.65754</v>
+        <v>70707.87688</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>93903.20513</v>
+        <v>74976.57572999998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>144235.2507</v>
+        <v>117199.43759</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>138149.83992</v>
+        <v>152388.19745</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>182964.75294</v>
+        <v>187765.39553</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>170341.35535</v>
+        <v>186442.27168</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>264097.56164</v>
+        <v>250406.62573</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>350486.0003900001</v>
+        <v>417992.21598</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>505749.9208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>580397.7268099999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1383837.339</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7339.81213</v>
+        <v>4997.517739999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7135.978949999999</v>
+        <v>6565.24447</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>19995.36302</v>
+        <v>8963.66906</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>19776.54599</v>
+        <v>13851.1442</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>17328.80264</v>
+        <v>37795.6254</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>14860.46326</v>
+        <v>16792.60183</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>23619.16409</v>
+        <v>23958.61148</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>24872.38966</v>
+        <v>21712.99909</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>30623.57855</v>
+        <v>28783.20371</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>36649.55306000001</v>
+        <v>42220.7859</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>61179.22936</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>55536.19043</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>93790.375</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>35.02879</v>
+        <v>28.43071</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>216.93412</v>
+        <v>78.93593</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>225.04449</v>
+        <v>219.69718</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>504.80095</v>
+        <v>502.15418</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>170.27657</v>
+        <v>364.12664</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>274.57643</v>
+        <v>360.5066</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2021.52082</v>
+        <v>1998.81725</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>122.18665</v>
+        <v>254.08087</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>667.4102800000001</v>
+        <v>735.77057</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>800.5873800000002</v>
+        <v>729.76599</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>698.59401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>682.94901</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2776.94</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7304.78334</v>
+        <v>4969.08703</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6919.04483</v>
+        <v>6486.30854</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>19770.31853</v>
+        <v>8743.971879999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>19271.74504</v>
+        <v>13348.99002</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>17158.52607</v>
+        <v>37431.49875999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>14585.88683</v>
+        <v>16432.09523</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>21597.64327</v>
+        <v>21959.79423</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>24750.20301</v>
+        <v>21458.91822</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>29956.16827</v>
+        <v>28047.43314</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>35848.96568</v>
+        <v>41491.01991</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>60480.63535</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>54853.24142</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>91013.435</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>19007.7678</v>
+        <v>9890.71315</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>12838.54063</v>
+        <v>12707.27505</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>73275.38868999999</v>
+        <v>68398.1966</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>12885.18356</v>
+        <v>15326.50274</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>12521.51386</v>
+        <v>12397.87655</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>40387.44019</v>
+        <v>40425.68197</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>20105.2329</v>
+        <v>31134.87359</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>61915.25269</v>
+        <v>61487.69888</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>26694.24842</v>
+        <v>29803.12038</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>121249.3971</v>
+        <v>115365.96552</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>56434.61036999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>48090.968</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>83438.201</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>532.9439100000001</v>
+        <v>419.61313</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2827.59375</v>
+        <v>2645.75474</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1258.21854</v>
+        <v>1343.79535</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1023.2257</v>
+        <v>2379.68217</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1523.04258</v>
+        <v>1187.34311</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1374.55045</v>
+        <v>882.92168</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3092.72566</v>
+        <v>2096.11958</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3612.37386</v>
+        <v>2263.42961</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1688.6085</v>
+        <v>1965.20627</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>2022.63459</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7704.904619999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4185.18153</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>13640.684</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>544.05417</v>
+        <v>542.47609</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>224.92554</v>
+        <v>180.23027</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>8419.00605</v>
+        <v>7965.84911</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>320.89111</v>
+        <v>150.97536</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>474.69007</v>
+        <v>559.19675</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1913.41086</v>
+        <v>2482.613690000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3196.48322</v>
+        <v>3692.6463</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1467.7366</v>
+        <v>5606.93613</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>959.32844</v>
+        <v>1270.76804</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9129.654470000001</v>
+        <v>5536.87721</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2264.73175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2277.98849</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2941.305</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>17930.76972</v>
+        <v>8928.62393</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9786.021339999999</v>
+        <v>9881.29004</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>63598.1641</v>
+        <v>59088.55213999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>11541.06675</v>
+        <v>12795.84521</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10523.78121</v>
+        <v>10651.33669</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>37099.47888</v>
+        <v>37060.1466</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>13816.02402</v>
+        <v>25346.10771</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>56835.14223</v>
+        <v>53617.33314</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>24046.31148</v>
+        <v>26567.14607</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>110097.10804</v>
+        <v>107806.45372</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>46464.974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>41627.79798</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>66856.212</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>35330.62521</v>
+        <v>29412.18962</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>51710.74862999999</v>
+        <v>52567.19774000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>27240.63187</v>
+        <v>11273.34934</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>100794.56756</v>
+        <v>73501.21719</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>149042.53948</v>
+        <v>142597.18644</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>112622.86299</v>
+        <v>128755.11731</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>186478.68413</v>
+        <v>180589.13342</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>133298.49232</v>
+        <v>146667.57189</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>268026.89177</v>
+        <v>249386.70906</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>265886.15635</v>
+        <v>344847.03636</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>510494.53979</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>587842.9492399999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1394189.513</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>11682.833</v>
+        <v>11392.21978</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>10984.69756</v>
+        <v>12641.71019</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>16169.03486</v>
+        <v>15968.73029</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>20527.43582</v>
+        <v>19232.09412</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>29987.81312</v>
+        <v>27892.47401</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>27399.15001</v>
+        <v>31050.17751</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>33856.24056000001</v>
+        <v>35905.35442</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>35934.29561</v>
+        <v>41172.48011</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>45468.63897</v>
+        <v>44471.81619</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>66979.29532999999</v>
+        <v>78616.84552</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>72298.28861</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>89259.75913999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>204299.418</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>23647.79221</v>
+        <v>18019.96984000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>40726.05107</v>
+        <v>39925.48755000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>11071.59701</v>
+        <v>-4695.38095</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>80267.13174000001</v>
+        <v>54269.12306999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>119054.72636</v>
+        <v>114704.71243</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>85223.71298000001</v>
+        <v>97704.93979999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>152622.44357</v>
+        <v>144683.779</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>97364.19671</v>
+        <v>105495.09178</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>222558.2528</v>
+        <v>204914.89287</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>198906.86102</v>
+        <v>266230.1908400001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>438196.25118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>498583.1901</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1189890.095</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>190</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>